--- a/uclidmmp/inputData.xlsx
+++ b/uclidmmp/inputData.xlsx
@@ -1,52 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IITWForce\Pluto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhe\git\seleniumrepouclid\uclidmmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA05F22-11A6-4080-A96D-97358DDA483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04D0EEB-374F-4469-8473-805C5A8CFF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28E69435-C3BA-41CC-9D42-334FCAD746C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="E2E_001" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">E2E_001!$A$1:$G$12</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>ria</t>
-  </si>
-  <si>
-    <t>Ria12345</t>
-  </si>
-  <si>
-    <t>ria1</t>
-  </si>
-  <si>
-    <t>home</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Element Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Value </t>
+  </si>
+  <si>
+    <t>Enter Username</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>SlNo</t>
+  </si>
+  <si>
+    <t>http://demo.openmrs.org/</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Clicking on InPatientWard</t>
+  </si>
+  <si>
+    <t>Inpatient Ward</t>
+  </si>
+  <si>
+    <t>Verifying the Login Message</t>
+  </si>
+  <si>
+    <t>Verifying invalid login Message</t>
+  </si>
+  <si>
+    <t>error-message</t>
+  </si>
+  <si>
+    <t>Invalid username/password. Please try again.</t>
+  </si>
+  <si>
+    <t>launchApplication</t>
+  </si>
+  <si>
+    <t>Launch Application</t>
+  </si>
+  <si>
+    <t>findElement</t>
+  </si>
+  <si>
+    <t>verifyText</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>Logged in as Super User</t>
+  </si>
+  <si>
+    <t>tagname</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +137,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -71,18 +204,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -95,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -105,44 +347,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -170,31 +412,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -222,26 +447,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -250,178 +458,449 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7414D797-02EE-4047-BD1D-991AC54EC0C2}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" style="3" width="16.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="22.08984375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="11.81640625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>